--- a/interfejs servera.xlsx
+++ b/interfejs servera.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\TiM_Krokomierz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>Funckja tworzy nowy pomiar, lub zamkyka poprzedni</t>
   </si>
   <si>
-    <t>GET - is record</t>
-  </si>
-  <si>
     <t>Funkcja sprawdza czy nie ma rozpoczętego pomiaru</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>tablica macierzy pomiarowych</t>
+  </si>
+  <si>
+    <t>GET - active record</t>
   </si>
 </sst>
 </file>
@@ -163,15 +163,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,11 +191,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -192,6 +219,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A51:A80"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,373 +542,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>1</v>
-      </c>
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>6</v>
       </c>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="7">
         <v>7</v>
       </c>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>10</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="B47" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
